--- a/files/User_Information_Input_File.xlsx
+++ b/files/User_Information_Input_File.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\aman.kumar40\CAPSTONE_PROJECT\capstone_Project\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DCB2673-385B-4FA2-BFF5-D6911FB91A1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{279BB809-3ECB-4885-8476-90F410523C02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="58">
   <si>
     <t>S.No</t>
   </si>
@@ -169,13 +169,37 @@
     <t>IEBI - INFOSYS TECHNOLOGIES LTD</t>
   </si>
   <si>
-    <t>20482</t>
-  </si>
-  <si>
-    <t>Kashyap63463</t>
-  </si>
-  <si>
-    <t>Test@82170</t>
+    <t>User Registration</t>
+  </si>
+  <si>
+    <t>20538</t>
+  </si>
+  <si>
+    <t>Kumar29902</t>
+  </si>
+  <si>
+    <t>Test@3794</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>20539</t>
+  </si>
+  <si>
+    <t>Kata89798</t>
+  </si>
+  <si>
+    <t>Test@13888</t>
+  </si>
+  <si>
+    <t>20540</t>
+  </si>
+  <si>
+    <t>Kashyap00691</t>
+  </si>
+  <si>
+    <t>Test@99963</t>
   </si>
 </sst>
 </file>
@@ -570,16 +594,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0B51F3A-FE8C-4C30-A101-F8ACC1D483E9}">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:U4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="5.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="8.7109375" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="7.140625" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1" collapsed="1"/>
@@ -591,16 +615,17 @@
     <col min="11" max="11" width="7.5703125" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="23.5703125" customWidth="1" collapsed="1"/>
     <col min="13" max="13" width="10.28515625" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="7.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="31.42578125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="18" max="18" width="16.85546875" customWidth="1" collapsed="1"/>
     <col min="19" max="19" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="20" max="20" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>34</v>
       </c>
@@ -661,8 +686,11 @@
       <c r="T1" s="5" t="s">
         <v>31</v>
       </c>
+      <c r="U1" s="5" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -714,8 +742,20 @@
       <c r="Q2" s="6" t="s">
         <v>46</v>
       </c>
+      <c r="R2" t="s">
+        <v>48</v>
+      </c>
+      <c r="S2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U2" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -767,8 +807,20 @@
       <c r="Q3" s="6" t="s">
         <v>46</v>
       </c>
+      <c r="R3" t="s">
+        <v>52</v>
+      </c>
+      <c r="S3" t="s">
+        <v>53</v>
+      </c>
+      <c r="T3" t="s">
+        <v>54</v>
+      </c>
+      <c r="U3" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -821,13 +873,16 @@
         <v>46</v>
       </c>
       <c r="R4" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="S4" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="T4" t="s">
-        <v>49</v>
+        <v>57</v>
+      </c>
+      <c r="U4" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/files/User_Information_Input_File.xlsx
+++ b/files/User_Information_Input_File.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\aman.kumar40\CAPSTONE_PROJECT\capstone_Project\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{279BB809-3ECB-4885-8476-90F410523C02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8140EF0B-51D7-4687-BA1F-EBA567E9A5FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="61">
   <si>
     <t>S.No</t>
   </si>
@@ -172,34 +172,43 @@
     <t>User Registration</t>
   </si>
   <si>
-    <t>20538</t>
-  </si>
-  <si>
-    <t>Kumar29902</t>
-  </si>
-  <si>
-    <t>Test@3794</t>
+    <t>20547</t>
+  </si>
+  <si>
+    <t>Kumar65876</t>
+  </si>
+  <si>
+    <t>Test@86100</t>
   </si>
   <si>
     <t>Completed</t>
   </si>
   <si>
-    <t>20539</t>
-  </si>
-  <si>
-    <t>Kata89798</t>
-  </si>
-  <si>
-    <t>Test@13888</t>
-  </si>
-  <si>
-    <t>20540</t>
-  </si>
-  <si>
-    <t>Kashyap00691</t>
-  </si>
-  <si>
-    <t>Test@99963</t>
+    <t>20548</t>
+  </si>
+  <si>
+    <t>Kata60476</t>
+  </si>
+  <si>
+    <t>Test@57498</t>
+  </si>
+  <si>
+    <t>20549</t>
+  </si>
+  <si>
+    <t>Kashyap74360</t>
+  </si>
+  <si>
+    <t>Test@97548</t>
+  </si>
+  <si>
+    <t>20550</t>
+  </si>
+  <si>
+    <t>Kumar99685</t>
+  </si>
+  <si>
+    <t>Test@45711</t>
   </si>
 </sst>
 </file>
@@ -596,33 +605,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0B51F3A-FE8C-4C30-A101-F8ACC1D483E9}">
   <dimension ref="A1:U4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="8.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.42578125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="5.85546875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.140625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="7.5703125" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="23.5703125" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="10.28515625" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="7.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="31.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="16.85546875" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="4.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="7.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="5.85546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="7.5703125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="7.5703125" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="31.42578125" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
@@ -743,13 +752,13 @@
         <v>46</v>
       </c>
       <c r="R2" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="S2" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="T2" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="U2" t="s">
         <v>51</v>
@@ -906,18 +915,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="10.85546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="9" width="15" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="8.85546875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="6.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="8" max="9" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
